--- a/data/MisInfoText/Analysis_output/social_media/MisInfoText_social_media_all_caps.xlsx
+++ b/data/MisInfoText/Analysis_output/social_media/MisInfoText_social_media_all_caps.xlsx
@@ -11,17 +11,18 @@
     <sheet name="2010" sheetId="2" r:id="rId2"/>
     <sheet name="2013" sheetId="3" r:id="rId3"/>
     <sheet name="2014" sheetId="4" r:id="rId4"/>
-    <sheet name="2016" sheetId="5" r:id="rId5"/>
-    <sheet name="2017" sheetId="6" r:id="rId6"/>
-    <sheet name="2018" sheetId="7" r:id="rId7"/>
-    <sheet name="Proportion Summary" sheetId="8" r:id="rId8"/>
+    <sheet name="2015" sheetId="5" r:id="rId5"/>
+    <sheet name="2016" sheetId="6" r:id="rId6"/>
+    <sheet name="2017" sheetId="7" r:id="rId7"/>
+    <sheet name="2018" sheetId="8" r:id="rId8"/>
+    <sheet name="Proportion Summary" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="323">
   <si>
     <t>factcheckURL</t>
   </si>
@@ -93,13 +94,13 @@
     <t>http://www.politifact.com/truth-o-meter/statements/2013/aug/29/mike-huckabee/mike-huckabee-says-if-you-cut-out-high-gun-homicid/</t>
   </si>
   <si>
+    <t>http://www.politifact.com/florida/statements/2013/dec/04/jeb-bush/jeb-bush-says-obama-closing-embassy-vatican/</t>
+  </si>
+  <si>
+    <t>http://www.politifact.com/florida/statements/2013/oct/07/tweets/did-obama-shut-down-ocean-part-shutdown/</t>
+  </si>
+  <si>
     <t>http://www.politifact.com/virginia/statements/2013/sep/03/terry-mcauliffe/mcauliffe-says-cuccinelli-fought-law-banning-missi/</t>
-  </si>
-  <si>
-    <t>http://www.politifact.com/florida/statements/2013/dec/04/jeb-bush/jeb-bush-says-obama-closing-embassy-vatican/</t>
-  </si>
-  <si>
-    <t>http://www.politifact.com/florida/statements/2013/oct/07/tweets/did-obama-shut-down-ocean-part-shutdown/</t>
   </si>
   <si>
     <t>http://www.politifact.com/truth-o-meter/statements/2013/jul/10/allen-west/allen-west-says-more-americans-receive-food-aid-wo/</t>
@@ -127,15 +128,15 @@
 For more of the Huckabee Report visit MikeHuckabee.com.</t>
   </si>
   <si>
+    <t>Why would our President close our Embassy to the Vatican? Hopefully, it is not retribution for Catholic organizations opposing Obamacare.</t>
+  </si>
+  <si>
+    <t>It is official. Obama has jumped the shark and ordered the ocean closed! http://fb.me/3pRtU9RsT</t>
+  </si>
+  <si>
     <t>Imagine 
 @KenCuccinelli
 's Virginia: where it might not be a crime to carry a missile launcher into an airport. #VAGov</t>
-  </si>
-  <si>
-    <t>Why would our President close our Embassy to the Vatican? Hopefully, it is not retribution for Catholic organizations opposing Obamacare.</t>
-  </si>
-  <si>
-    <t>It is official. Obama has jumped the shark and ordered the ocean closed! http://fb.me/3pRtU9RsT</t>
   </si>
   <si>
     <t>More Americans receive food aid than work in private sector. "Fundamental transformation?" Nope, nation destruction. http://bit.ly/183zHwc</t>
@@ -184,15 +185,127 @@
     <t>Putin put out as Russia crash out of Olympic Ice Hockey. Hey Vlad, wasn't this the one you *really* wanted to win?</t>
   </si>
   <si>
+    <t>https://www.politifact.com/factchecks/2015/nov/06/greg-abbott/greg-abbott-embarrassed-says-californians-buying-m/</t>
+  </si>
+  <si>
+    <t>https://www.politifact.com/factchecks/2015/jul/21/wisconsin-state-afl-cio/wisconsin-afl-cio-says-scott-walker-budget-means-n/</t>
+  </si>
+  <si>
+    <t>https://www.politifact.com/factchecks/2015/oct/16/scott-walker/gov-scott-walker-says-board-wanted-accept-mickey-m/</t>
+  </si>
+  <si>
+    <t>https://www.politifact.com/factchecks/2015/nov/08/ben-carson/ben-carson-said-no-one-who-signed-declaration-inde/</t>
+  </si>
+  <si>
+    <t>https://www.politifact.com/factchecks/2015/aug/26/hillary-clinton/hillary-clinton-says-no-gop-candidate-has-talked-a/</t>
+  </si>
+  <si>
+    <t>https://www.politifact.com/factchecks/2015/mar/20/glenn-beck/glenn-beck-says-barack-obama-took-iran-hamas-us-te/</t>
+  </si>
+  <si>
+    <t>https://www.politifact.com/factchecks/2015/feb/06/scott-walker/despite-deliberate-actions-scott-walker-calls-chan/</t>
+  </si>
+  <si>
+    <t>https://www.politifact.com/factchecks/2015/oct/05/dana-loesch/Planned-parenthood-86-percent-abortion-revenue/</t>
+  </si>
+  <si>
+    <t>https://www.politifact.com/factchecks/2015/jun/25/gavin-mcinnes/tweet-civil-war-was-about-secession-not-slavery/</t>
+  </si>
+  <si>
+    <t>https://www.politifact.com/factchecks/2015/jul/07/dinesh-dsouza/hillary-clinton-confederate-battle-flag-nope-old-i/</t>
+  </si>
+  <si>
+    <t>https://www.politifact.com/factchecks/2015/sep/10/ted-cruz/ted-cruz-says-deal-will-facilitate-and-accelerate-/</t>
+  </si>
+  <si>
+    <t>https://www.politifact.com/factchecks/2015/sep/23/donald-trump/hillary-clinton-obama-birther-fact-check/</t>
+  </si>
+  <si>
+    <t>I'm EMBARRASSED: Texas #2 in nation for new gun purchases, behind CALIFORNIA. Let's pick up the pace Texans. 
+@NRA</t>
+  </si>
+  <si>
+    <t>A little-known budget provision removes the required 24-hour rest period in a 7-day work week. Craziness brought to you by the GOP!</t>
+  </si>
+  <si>
+    <t>GAB wanted to consider Mickey Mouse and Adolf Hitler as valid signatures on recall petitions. #ReformGAB</t>
+  </si>
+  <si>
+    <t>Tonight, going through all of your questions, I wanted to touch on a few issues that seem to be asked by many people.  
+I would like to deal with one question tonight in some detail.  The issue is experience.  Several people ask what they should tell their friends when people say “I like Carson but he has no political experience”.  
+You are absolutely right — I have no political experience.  The current Members of Congress have a combined 8,700 years of political experience.  Are we sure political experience is what we need.  Every signer of the Declaration of Independence had no federal elected office experience.  What they had was a deep belief that freedom is a gift from God.  They had a determination to rise up against a tyrannical King.  They were willing to risk all they had, even their lives, to be free.  Today we find ourselves with an entire class of politicians.  No one in Philadelphia, during that summer our nation was born, dreamed that service was a career with a pension.  America was the land of the Citizen Statesmen.  They were merchants, lawyers, farmers — and yes, even doctors.  They were willing to stand for freedom.  Today, the political class stands in the way, not for the people.  They demand pensions and perks.  This is not what our Founders envisioned for America.  I spent my life treating very ill children.  Over 15,000 times I gave my all to prolong their lives.  I was blessed to do it.  But when it came time for me to retire, I simply could not sit back any longer.  These children became my family.  What our government is doing to them is outrageous.  I am prepared to risk all that I have to try and make a difference in their future. I built one of the nation’s best medical centers.  I served for two decades on the boards of Costco and Kellogg.  I built a national scholarship program.
+My experience is very different than what we have come to expect.  I grew up poor.  I know what it is like to be homeless and hungry.  I know the pain of poverty.  I also know that education and a mother’s love can be the path out of dire poverty.  I know what it is like to see water fountains you are not allowed to drink out of because of your skin color.  I also know that once you peel back the skin, the brain is the same no matter what your skin color or continent you live on.  I know that victimhood is a trap.  I know that it is our Christian responsibility to offer those less fortunate a hand up.  I know my faith is strong and my ego is small.
+I know that my path to the White House is different than most.  But I also know I bring all of the pain and joy, the success and failure, the lessons learned through love and sorrow in my life’s journey.  Bill Clinton was famous for saying “I feel your pain” — well, I have walked in your shoes.
+I do not have political experience, I have a life journey.  A journey that not only made it possible for me to relate to so many different people, but also one where time and time again I was told I would fail, only to succeed.  My candidacy is different, that I grant you.  I have neither Donald Trump’s money or Jeb Bush’s political network.  However, I wouldn't trade a single child I treated for all of Trump’s money.  While I admire the Bush family’s dedication to service, I too served —  nights, weekends, holidays, birthdays and anniversaries with severely injured patients were my public service.
+I didn’t go to embassy cocktail parties or beg lobbyists for money.  I spent night after night in a quiet, sterile room trying to save the life of a small child.  That was my life’s service.  This is my life’s experience.  What I have is a lifetime of caring, integrity and honesty.  I have experienced the American Dream.  No where in the world, other than America, could a man whose ancestors were slaves, rise to become a leading brain surgeon and one day seek the Office of President.
+The very fact that I am running is testament to the greatness of America.  If all you want is political experience then I cannot be your candidate.
+Thank you for staying up with me. 
+Goodnight,   
+Ben</t>
+  </si>
+  <si>
+    <t>Not one of the 17 GOP candidates has discussed how they'd address the rising cost of college. Disappointing, but not surprising.</t>
+  </si>
+  <si>
+    <t>This is just Evil.
+A few weeks ago Obama took Hezbollah and Iran OFF the terror list.   He is negotiating with Iran WHILE their supreme leader said that they "will fly the Islamic flag of jihad over the White House".   Obama spends YOUR tax dollars through the state dept on V15 to defeat BiBi N, and as Christians are being liquidated, beheaded and crucified, their children being sold into slavery, his big bombing plan to stop Isis is SEVEN bombing runs a day.   7!!!   How many did we run in Bosnia:  165?!!!
+Now he does this:   http://foreignpolicy.com/.../from-tel-aviv-to-turtle-bay.../
+This must stop.  We are on the wrong side.
+I would suggest that BiBi's speech was a historic warning.   He warned us as he stated "I come to you as Mordecai."  We are Ester, O is either Haman or the king.   But we MUST stand up.   BBN was saying that Israel will survive but if we choose not to stand with Israel, the promise is that we will be destroyed.     I will not assign a motive to the presidents action as this is not about him anymore.  This is about us.
+I believe The Lord keeps His promises.   We lose unless we stand.   We must be counted and our voice heard.   This UN resolution is not in my name.  
+When it comes to Israel and the Jewish people, this administration does not speak for me!  When it comes to a deal with the homicidal maniacs that oppress the Iranian people  oppress women and stone homosexuals I want the world to know that as for me and my family - We reject those who say "peace, peace - when there is no peace".   Ezekiel refers to them as False prophets.  He warns us of all that we are witnessing.   He warned us that the blood of all those who could have been saved had we spoken up will be on our hands.
+My family and I stand with the Muslims that Isis kill because they are not "Muslim enough", we stand with the Jew, the Christian and the atheist who will not accept a second class citizenship in exchange for life.
+All men are created equal and endowed by their creator with the right of life, liberty and the pursuit of happiness. 
+The Jewish people have a right to live.  Don't you see this is how it happened the last 18 times.   NEVER AGAIN.
+I will not pretend not to see, I am not blind.  I see what is happening and in your heart in the quiet moments so do you.   
+Count me and my family as one that stand in the shadow of the righteous among the nations.  We will be counted, we will stand, we will be a shelter for those who evil men wish to dehumanize, persecute and kill.
+The Great Jehovah LIVES.  
+He will not hold us blameless.
+We said never forget, never again.
+We are connected and can see what is happening.
+We may choose not to watch the videos 
+But it will not change the reality.
+Children are being crucified.
+Not to stand is to stand.
+Not to speak is to speak.
+There will be no place to hide from our shame.
+I choose life.
+I choose God.
+I choose courage and love.
+Wake and stand.
+May God have mercy on our souls.
+*Note: This post originally said Hamas has been removed. It has been updated to reflect that it was Hezbollah.</t>
+  </si>
+  <si>
+    <t>The Wisconsin Idea will continue to thrive.  The final version of budget will fix drafting error - Mission statement will include WI Idea.</t>
+  </si>
+  <si>
+    <t>Wow. 
+@CecileRichards
+ is forced to concede that 86% of Planned Parenthood’s revenue is from abortion.</t>
+  </si>
+  <si>
+    <t>Leave the confederate flag up because the Civil War wasn't about slavery. It was about secession. Barely 5% of Southerners owned slaves 3/5.</t>
+  </si>
+  <si>
+    <t>Look closely at this Hillary photo; isn't that a Confederate flag behind her on the bookshelf?</t>
+  </si>
+  <si>
+    <t>3: The #IranDeal will facilitate and accelerate the nation of Iran acquiring nuclear weapons - #StopIranDeal</t>
+  </si>
+  <si>
+    <t>Just remember, the birther movement was started by Hillary Clinton in 2008. She was all in!</t>
+  </si>
+  <si>
+    <t>http://www.politifact.com/truth-o-meter/statements/2016/sep/09/occupy-democrats/facts-take-vacation-occupy-democrats-claim-about-p/</t>
+  </si>
+  <si>
     <t>http://www.politifact.com/truth-o-meter/statements/2016/mar/03/donald-trump/donald-trump-falls-phony-gandhi-quote/</t>
   </si>
   <si>
     <t>http://www.politifact.com/truth-o-meter/statements/2016/jun/10/viral-image/viral-image-stretches-truth-about-college-tuition/</t>
   </si>
   <si>
-    <t>http://www.politifact.com/truth-o-meter/statements/2016/sep/09/occupy-democrats/facts-take-vacation-occupy-democrats-claim-about-p/</t>
-  </si>
-  <si>
     <t>http://www.politifact.com/truth-o-meter/statements/2016/jul/08/viral-image/meme-resurrects-bogus-claim-2014-about-loretta-lyn/</t>
   </si>
   <si>
@@ -247,31 +360,35 @@
     <t>http://www.politifact.com/florida/statements/2016/sep/29/rick-scott/clinton-wants-admit-thousands-refugees-no-vetting-/</t>
   </si>
   <si>
+    <t>http://www.politifact.com/punditfact/statements/2016/nov/11/ann-coulter/ann-coulter-history-tweet-forgets-bush-presidency/</t>
+  </si>
+  <si>
+    <t>http://www.politifact.com/punditfact/statements/2016/may/27/newt-gingrich/newt-gingrich-offends-history-claims-trumps-timeli/</t>
+  </si>
+  <si>
+    <t>http://www.politifact.com/pennsylvania/statements/2016/oct/11/donald-trump/donald-trump-confuses-eatn-park-its-famous-smiley-/</t>
+  </si>
+  <si>
+    <t>http://www.politifact.com/new-hampshire/statements/2016/nov/28/donald-trump/trump-claims-serious-voter-fraud-new-hampshire/</t>
+  </si>
+  <si>
+    <t>http://www.politifact.com/truth-o-meter/statements/2016/dec/15/donald-trump/pants-fire-trump-tweet-about-russian-hacking-probe/</t>
+  </si>
+  <si>
+    <t>http://www.politifact.com/truth-o-meter/statements/2016/jun/28/donald-trump/checking-donald-trump-hillary-clintons-role-growin/</t>
+  </si>
+  <si>
+    <t>http://www.politifact.com/wisconsin/statements/2016/oct/12/donald-trump/donald-trumps-ridiculous-claim-all-polls-show-he-w/</t>
+  </si>
+  <si>
     <t>http://www.politifact.com/wisconsin/statements/2016/jun/16/paul-ryan/paul-ryan-right-american-colleges-amount-cartel/</t>
   </si>
   <si>
-    <t>http://www.politifact.com/wisconsin/statements/2016/oct/12/donald-trump/donald-trumps-ridiculous-claim-all-polls-show-he-w/</t>
-  </si>
-  <si>
-    <t>http://www.politifact.com/pennsylvania/statements/2016/oct/11/donald-trump/donald-trump-confuses-eatn-park-its-famous-smiley-/</t>
-  </si>
-  <si>
-    <t>http://www.politifact.com/punditfact/statements/2016/may/27/newt-gingrich/newt-gingrich-offends-history-claims-trumps-timeli/</t>
-  </si>
-  <si>
-    <t>http://www.politifact.com/punditfact/statements/2016/nov/11/ann-coulter/ann-coulter-history-tweet-forgets-bush-presidency/</t>
-  </si>
-  <si>
-    <t>http://www.politifact.com/new-hampshire/statements/2016/nov/28/donald-trump/trump-claims-serious-voter-fraud-new-hampshire/</t>
-  </si>
-  <si>
-    <t>http://www.politifact.com/truth-o-meter/statements/2016/jun/28/donald-trump/checking-donald-trump-hillary-clintons-role-growin/</t>
-  </si>
-  <si>
-    <t>http://www.politifact.com/truth-o-meter/statements/2016/dec/15/donald-trump/pants-fire-trump-tweet-about-russian-hacking-probe/</t>
-  </si>
-  <si>
     <t>http://www.politifact.com/texas/statements/2016/oct/18/texas-automobile-dealers-association/car-dealers-association-incorrectly-ties-500-savin/</t>
+  </si>
+  <si>
+    <t>HAS TAKEN LESS VACATION DAYS THAN ANY OTHER PRESIDENT IN A GENERATION
+HAVE TAKEN MORE VACATION DAYS THAN ANY OTHER CONGRESS IN HISTORY</t>
   </si>
   <si>
     <t>"FIRST THEY IGNORE YOU, THEN THEY LAUGH AT YOU, THEN THEY FIGHT YOU, THEN YOU WIN." MAHATMA GANDHI</t>
@@ -279,10 +396,6 @@
   <si>
     <t>TUITION-FREE PUBLIC UNIVERSITIES AND COLLEGES ARE JUST A PIPE DREAM
 FALSE. THEY WERE BOTH FREE UP UNTIL THE VIETNAM WAR.</t>
-  </si>
-  <si>
-    <t>HAS TAKEN LESS VACATION DAYS THAN ANY OTHER PRESIDENT IN A GENERATION
-HAVE TAKEN MORE VACATION DAYS THAN ANY OTHER CONGRESS IN HISTORY</t>
   </si>
   <si>
     <t>FUN FACT OF THE DAY
@@ -347,29 +460,29 @@
     <t>Donald Trump was the winner in last night’s debate because he is the candidate for change. We need a change in this country and Hillary Clinton is more of the same. She had her chance to change the economy or defeat ISIS, neither was ever a priority for her. The biggest loser was the American people because we never got to hear a vigorous conversation about why Hillary set up an illegal email server for classified information or why she wants to bring in thousands of refugees to America from all around the world without any kind of security screening. Donald Trump wants to keep our nation safe and secure our border while growing jobs. Hillary Clinton doesn’t. It is that simple.</t>
   </si>
   <si>
-    <t>Why don’t we break up the college cartel &amp; let students try different options? Let's give students a choice.</t>
-  </si>
-  <si>
-    <t>Despite winning the second debate in a landslide (every poll), it is hard to do well when Paul Ryan and others give zero support!</t>
+    <t>1928 was last time Republicans had the White House, the House and the Senate.</t>
+  </si>
+  <si>
+    <t>No one In American history has moved from a June 16 announcement to a May 26 winning of a majority. Trump's achievement is remarkable.</t>
   </si>
   <si>
     <t>Stopped by Smiley Cookie to pick up some great cookies for the family, along with Rudy.</t>
   </si>
   <si>
-    <t>No one In American history has moved from a June 16 announcement to a May 26 winning of a majority. Trump's achievement is remarkable.</t>
-  </si>
-  <si>
-    <t>1928 was last time Republicans had the White House, the House and the Senate.</t>
-  </si>
-  <si>
     <t>Serious voter fraud in Virginia, New Hampshire and California - so why isn't the media reporting on this? Serious bias - big problem!</t>
+  </si>
+  <si>
+    <t>If Russia, or some other entity, was hacking, why did the White House wait so long to act? Why did they only complain after Hillary lost?</t>
   </si>
   <si>
     <t>Hillary Clinton surged the trade deficit with China 40% as
 Secretary of State, costing Americans millions of jobs.</t>
   </si>
   <si>
-    <t>If Russia, or some other entity, was hacking, why did the White House wait so long to act? Why did they only complain after Hillary lost?</t>
+    <t>Despite winning the second debate in a landslide (every poll), it is hard to do well when Paul Ryan and others give zero support!</t>
+  </si>
+  <si>
+    <t>Why don’t we break up the college cartel &amp; let students try different options? Let's give students a choice.</t>
   </si>
   <si>
     <t>Auto dealers profit off the current system. Let’s put consumers first again. Tell your legislators you support Direct Sales! #txlege</t>
@@ -402,12 +515,12 @@
     <t>http://www.politifact.com/texas/statements/2017/mar/01/greg-abbott/greg-abbott-falsely-says-travis-county-not-enforci/</t>
   </si>
   <si>
+    <t>http://www.politifact.com/north-carolina/statements/2017/apr/04/caitlyn-jenner/caitlyn-jenner-get-north-carolinas-new-hb2-replace/</t>
+  </si>
+  <si>
     <t>http://www.politifact.com/truth-o-meter/statements/2017/apr/27/donald-trump/did-trade-deficit-cause-slow-growth-2016-donald-tr/</t>
   </si>
   <si>
-    <t>http://www.politifact.com/north-carolina/statements/2017/apr/04/caitlyn-jenner/caitlyn-jenner-get-north-carolinas-new-hb2-replace/</t>
-  </si>
-  <si>
     <t>http://www.politifact.com/punditfact/statements/2017/oct/09/colin-kaepernick/nfls-colin-kaepernick-incorrectly-credits-winston-/</t>
   </si>
   <si>
@@ -417,30 +530,30 @@
     <t>http://www.politifact.com/truth-o-meter/statements/2017/oct/30/evan-jenkins/did-patrick-morrisey-once-support-abortion-rights/</t>
   </si>
   <si>
+    <t>http://www.politifact.com/truth-o-meter/statements/2017/feb/09/donald-trump/trump-wrong-sen-blumenthals-cnn-interview-and-viet/</t>
+  </si>
+  <si>
     <t>http://www.politifact.com/truth-o-meter/statements/2017/apr/18/donald-trump/trump-falsely-claims-obama-policies-blame-growth-m/</t>
   </si>
   <si>
-    <t>http://www.politifact.com/truth-o-meter/statements/2017/feb/09/donald-trump/trump-wrong-sen-blumenthals-cnn-interview-and-viet/</t>
+    <t>http://www.politifact.com/florida/statements/2017/may/17/richard-corcoran/florida-house-speaker-richard-corcoran-misleads-ab/</t>
+  </si>
+  <si>
+    <t>http://www.politifact.com/truth-o-meter/statements/2017/oct/26/donald-trump/donald-trump-wrong-his-tax-plan-biggest-cut-ever/</t>
   </si>
   <si>
     <t>http://www.politifact.com/truth-o-meter/statements/2017/jul/25/donald-trump/tweet-donald-trump-revives-charge-improper-ties-be/</t>
   </si>
   <si>
-    <t>http://www.politifact.com/florida/statements/2017/may/17/richard-corcoran/florida-house-speaker-richard-corcoran-misleads-ab/</t>
-  </si>
-  <si>
-    <t>http://www.politifact.com/truth-o-meter/statements/2017/oct/26/donald-trump/donald-trump-wrong-his-tax-plan-biggest-cut-ever/</t>
-  </si>
-  <si>
     <t>http://www.politifact.com/truth-o-meter/statements/2017/may/26/donald-trump/did-donald-trumps-trip-create-or-save-millions-job/</t>
   </si>
   <si>
+    <t>http://www.politifact.com/wisconsin/statements/2017/feb/23/david-clarke-jr/david-clarke-says-michelle-obama-said-she-was-prou/</t>
+  </si>
+  <si>
     <t>http://www.politifact.com/truth-o-meter/statements/2017/oct/23/donald-trump/trump-says-insurers-made-fortune-obamacare-they-di/</t>
   </si>
   <si>
-    <t>http://www.politifact.com/wisconsin/statements/2017/feb/23/david-clarke-jr/david-clarke-says-michelle-obama-said-she-was-prou/</t>
-  </si>
-  <si>
     <t>http://www.politifact.com/texas/statements/2017/aug/02/greg-abbott/greg-abbott-celebrates-false-claim-jerry-jones-tol/</t>
   </si>
   <si>
@@ -450,15 +563,15 @@
     <t>http://www.politifact.com/global-news/statements/2017/apr/17/viral-image/did-snapchats-ceo-say-india-was-too-poor-his-app/</t>
   </si>
   <si>
+    <t>http://www.politifact.com/truth-o-meter/statements/2017/jul/03/donald-trump/trumps-pants-fire-claim-cnn-ratings-are-way-down/</t>
+  </si>
+  <si>
+    <t>http://www.politifact.com/truth-o-meter/statements/2017/jun/19/donald-trump/donald-trump-tweet-50-approval-cherry-picks-pollin/</t>
+  </si>
+  <si>
     <t>http://www.politifact.com/truth-o-meter/statements/2017/nov/01/donald-trump/was-diversity-visa-program-schumer-beauty-donald-t/</t>
   </si>
   <si>
-    <t>http://www.politifact.com/truth-o-meter/statements/2017/jun/19/donald-trump/donald-trump-tweet-50-approval-cherry-picks-pollin/</t>
-  </si>
-  <si>
-    <t>http://www.politifact.com/truth-o-meter/statements/2017/jul/03/donald-trump/trumps-pants-fire-claim-cnn-ratings-are-way-down/</t>
-  </si>
-  <si>
     <t>http://www.politifact.com/truth-o-meter/statements/2017/mar/02/claire-mccaskill/claire-mccaskill-says-she-never-met-russian-ambass/</t>
   </si>
   <si>
@@ -486,90 +599,90 @@
     <t>http://www.politifact.com/truth-o-meter/statements/2017/jan/30/donald-trump/why-comparing-trumps-and-obamas-immigration-restri/</t>
   </si>
   <si>
+    <t>http://www.politifact.com/wisconsin/statements/2017/mar/13/tammy-baldwin/would-trumpcare-gop-replacement-obamacare-allow-in/</t>
+  </si>
+  <si>
+    <t>http://www.politifact.com/wisconsin/statements/2018/jan/26/scott-walker/checking-gov-walkers-claim-state-dot-ahead-game/</t>
+  </si>
+  <si>
+    <t>http://www.politifact.com/pennsylvania/statements/2017/mar/28/jim-kenney/philly-mayor-draws-incorrect-immigrant-biz-stat-fl/</t>
+  </si>
+  <si>
+    <t>http://www.politifact.com/florida/statements/2017/jul/11/richard-corcoran/richard-corcoran-fails-prove-claim-miami-judge-mil/</t>
+  </si>
+  <si>
+    <t>http://www.politifact.com/florida/statements/2017/oct/23/matt-gaetz/no-evidence-prove-medicaid-expansion-fueling-opioi/</t>
+  </si>
+  <si>
+    <t>http://www.politifact.com/georgia/statements/2017/apr/17/donald-trump/trump-makes-false-claim-about-jon-ossoffs-immigrat/</t>
+  </si>
+  <si>
+    <t>http://www.politifact.com/global-news/statements/2017/feb/07/blog-posting/135-billion-enough-end-global-poverty-no/</t>
+  </si>
+  <si>
+    <t>http://www.politifact.com/missouri/statements/2017/apr/12/vicky-hartzler/rep-hartzler-misses-trend-insurance-premiums/</t>
+  </si>
+  <si>
+    <t>http://www.politifact.com/missouri/statements/2017/may/10/claire-mccaskill/mccaskill-cites-long-disproven-figure-opioid-use/</t>
+  </si>
+  <si>
+    <t>http://www.politifact.com/missouri/statements/2017/oct/05/andrew-koenig/margaret-sanger-alleged-white-supremacist/</t>
+  </si>
+  <si>
     <t>http://www.politifact.com/wisconsin/statements/2017/jun/21/tweets/pro-putin-ukrainian-gave-scott-walker-1-million/</t>
   </si>
   <si>
-    <t>http://www.politifact.com/wisconsin/statements/2017/mar/13/tammy-baldwin/would-trumpcare-gop-replacement-obamacare-allow-in/</t>
-  </si>
-  <si>
-    <t>http://www.politifact.com/wisconsin/statements/2018/jan/26/scott-walker/checking-gov-walkers-claim-state-dot-ahead-game/</t>
-  </si>
-  <si>
-    <t>http://www.politifact.com/pennsylvania/statements/2017/mar/28/jim-kenney/philly-mayor-draws-incorrect-immigrant-biz-stat-fl/</t>
+    <t>http://www.politifact.com/punditfact/statements/2017/aug/23/david-frum/are-trumps-travels-imposing-historic-costs-taxpaye/</t>
   </si>
   <si>
     <t>http://www.politifact.com/punditfact/statements/2017/apr/20/new-york-times/new-york-times-tweet-fumbles-comparisons-patriots-/</t>
   </si>
   <si>
-    <t>http://www.politifact.com/punditfact/statements/2017/aug/23/david-frum/are-trumps-travels-imposing-historic-costs-taxpaye/</t>
+    <t>http://www.politifact.com/truth-o-meter/statements/2017/aug/09/donald-trump/under-donald-trump-us-nuclear-arsenal-far-stronger/</t>
+  </si>
+  <si>
+    <t>http://www.politifact.com/truth-o-meter/statements/2017/aug/28/blog-posting/there-are-no-sharks-swimming-streets-houston-or-an/</t>
+  </si>
+  <si>
+    <t>http://www.politifact.com/truth-o-meter/statements/2017/aug/29/joe-arpaio/arpaio-falsely-ties-conviction-obama-administratio/</t>
+  </si>
+  <si>
+    <t>http://www.politifact.com/truth-o-meter/statements/2017/aug/31/liberal-bloggers/mike-pence-cited-bible-oppose-katrina-relief-liber/</t>
+  </si>
+  <si>
+    <t>http://www.politifact.com/truth-o-meter/statements/2017/dec/12/nancy-pelosi/have-wages-failed-go-donald-trumps-watch/</t>
+  </si>
+  <si>
+    <t>http://www.politifact.com/truth-o-meter/statements/2017/jan/27/charles-schumer/chuck-schumer-wrongly-tweets-tillerson-wont-divest/</t>
+  </si>
+  <si>
+    <t>http://www.politifact.com/truth-o-meter/statements/2017/jul/26/donald-trump/amazon-no-tax-monopoly-donald-trump-said/</t>
+  </si>
+  <si>
+    <t>http://www.politifact.com/truth-o-meter/statements/2017/jun/04/donald-trump/donald-trumps-tweet-misleads-about-london-mayors-r/</t>
+  </si>
+  <si>
+    <t>http://www.politifact.com/truth-o-meter/statements/2017/jun/14/donald-trump/trump-wrongly-ties-flawed-obamacare-data-death-spi/</t>
+  </si>
+  <si>
+    <t>http://www.politifact.com/truth-o-meter/statements/2017/jun/21/donald-trump/white-house-tweet-wrongly-says-obamacare-led-fewer/</t>
+  </si>
+  <si>
+    <t>http://www.politifact.com/truth-o-meter/statements/2017/mar/07/donald-trump/donald-trump-wrongly-blames-barack-obama-former-gu/</t>
+  </si>
+  <si>
+    <t>http://www.politifact.com/truth-o-meter/statements/2017/may/04/donald-trump/trumps-false-claim-dems-want-billions-go-insurance/</t>
+  </si>
+  <si>
+    <t>http://www.politifact.com/truth-o-meter/statements/2017/may/31/bernie-s/bernie-sanders-inflates-trump-tax-plan-benefits-bi/</t>
+  </si>
+  <si>
+    <t>http://www.politifact.com/truth-o-meter/statements/2017/oct/12/donald-trump/sen-bob-corker-responsible-iran-deal-donald-trump-/</t>
   </si>
   <si>
     <t>http://www.politifact.com/punditfact/statements/2017/feb/08/social-media/does-melania-trumps-security-detail-cost-more-fede/</t>
   </si>
   <si>
-    <t>http://www.politifact.com/florida/statements/2017/jul/11/richard-corcoran/richard-corcoran-fails-prove-claim-miami-judge-mil/</t>
-  </si>
-  <si>
-    <t>http://www.politifact.com/florida/statements/2017/oct/23/matt-gaetz/no-evidence-prove-medicaid-expansion-fueling-opioi/</t>
-  </si>
-  <si>
-    <t>http://www.politifact.com/georgia/statements/2017/apr/17/donald-trump/trump-makes-false-claim-about-jon-ossoffs-immigrat/</t>
-  </si>
-  <si>
-    <t>http://www.politifact.com/global-news/statements/2017/feb/07/blog-posting/135-billion-enough-end-global-poverty-no/</t>
-  </si>
-  <si>
-    <t>http://www.politifact.com/missouri/statements/2017/apr/12/vicky-hartzler/rep-hartzler-misses-trend-insurance-premiums/</t>
-  </si>
-  <si>
-    <t>http://www.politifact.com/missouri/statements/2017/may/10/claire-mccaskill/mccaskill-cites-long-disproven-figure-opioid-use/</t>
-  </si>
-  <si>
-    <t>http://www.politifact.com/missouri/statements/2017/oct/05/andrew-koenig/margaret-sanger-alleged-white-supremacist/</t>
-  </si>
-  <si>
-    <t>http://www.politifact.com/truth-o-meter/statements/2017/jul/26/donald-trump/amazon-no-tax-monopoly-donald-trump-said/</t>
-  </si>
-  <si>
-    <t>http://www.politifact.com/truth-o-meter/statements/2017/aug/09/donald-trump/under-donald-trump-us-nuclear-arsenal-far-stronger/</t>
-  </si>
-  <si>
-    <t>http://www.politifact.com/truth-o-meter/statements/2017/aug/28/blog-posting/there-are-no-sharks-swimming-streets-houston-or-an/</t>
-  </si>
-  <si>
-    <t>http://www.politifact.com/truth-o-meter/statements/2017/aug/29/joe-arpaio/arpaio-falsely-ties-conviction-obama-administratio/</t>
-  </si>
-  <si>
-    <t>http://www.politifact.com/truth-o-meter/statements/2017/aug/31/liberal-bloggers/mike-pence-cited-bible-oppose-katrina-relief-liber/</t>
-  </si>
-  <si>
-    <t>http://www.politifact.com/truth-o-meter/statements/2017/dec/12/nancy-pelosi/have-wages-failed-go-donald-trumps-watch/</t>
-  </si>
-  <si>
-    <t>http://www.politifact.com/truth-o-meter/statements/2017/jan/27/charles-schumer/chuck-schumer-wrongly-tweets-tillerson-wont-divest/</t>
-  </si>
-  <si>
-    <t>http://www.politifact.com/truth-o-meter/statements/2017/jun/04/donald-trump/donald-trumps-tweet-misleads-about-london-mayors-r/</t>
-  </si>
-  <si>
-    <t>http://www.politifact.com/truth-o-meter/statements/2017/jun/14/donald-trump/trump-wrongly-ties-flawed-obamacare-data-death-spi/</t>
-  </si>
-  <si>
-    <t>http://www.politifact.com/truth-o-meter/statements/2017/jun/21/donald-trump/white-house-tweet-wrongly-says-obamacare-led-fewer/</t>
-  </si>
-  <si>
-    <t>http://www.politifact.com/truth-o-meter/statements/2017/mar/07/donald-trump/donald-trump-wrongly-blames-barack-obama-former-gu/</t>
-  </si>
-  <si>
-    <t>http://www.politifact.com/truth-o-meter/statements/2017/may/04/donald-trump/trumps-false-claim-dems-want-billions-go-insurance/</t>
-  </si>
-  <si>
-    <t>http://www.politifact.com/truth-o-meter/statements/2017/may/31/bernie-s/bernie-sanders-inflates-trump-tax-plan-benefits-bi/</t>
-  </si>
-  <si>
-    <t>http://www.politifact.com/truth-o-meter/statements/2017/oct/12/donald-trump/sen-bob-corker-responsible-iran-deal-donald-trump-/</t>
-  </si>
-  <si>
     <t>BILL CLINTON GAVE NORTH KOREA $5 BILLION AND TWO NUCLEAR REACTORS IN 1994, ESSENTIALLY GIVING THEM NUKES</t>
   </si>
   <si>
@@ -597,10 +710,10 @@
     <t>Sheriff violates oath by refusing to enforce 8 USC 1373 &amp; not giving ICE info about drugs cartels &amp; armed robbers.  http://mystatesman.com/news/opinion/hernandez-promise-work-against-violent-crimes-while-serving-all/qFZtxaPNJzVBqXTkQgUIPJ/</t>
   </si>
   <si>
+    <t>The new law orders NC cities to discriminate against LGBT people until at least 2020 and unfair "bathroom bans" remain..</t>
+  </si>
+  <si>
     <t>The U.S. recorded its slowest economic growth in five years (2016). GDP up only 1.6%. Trade deficits hurt the economy very badly.</t>
-  </si>
-  <si>
-    <t>The new law orders NC cities to discriminate against LGBT people until at least 2020 and unfair "bathroom bans" remain..</t>
   </si>
   <si>
     <t>A lie gets halfway around the world before the truth has a chance to get its pants on.
@@ -613,28 +726,28 @@
     <t>GOP, then Dem for 20 years, then Jenkins becomes a rank political opportunist and joins GOP. Jenkins stands for nothing but himself. #wvsen</t>
   </si>
   <si>
+    <t>Chris Cuomo, in his interview with Sen. Blumenthal, never asked him about his long-term lie about his brave "service" in Vietnam. FAKE NEWS!</t>
+  </si>
+  <si>
     <t>The weak illegal immigration policies of the Obama Admin. allowed bad MS 13 gangs to form in cities across U.S. We are removing them fast!</t>
   </si>
   <si>
-    <t>Chris Cuomo, in his interview with Sen. Blumenthal, never asked him about his long-term lie about his brave "service" in Vietnam. FAKE NEWS!</t>
+    <t>Time to end the myth of "legislation negotiated in secret."  #transparency #HB7069 #PutKidsFirst</t>
+  </si>
+  <si>
+    <t>Working hard on the biggest tax cut in U.S. history. Great support from so many sides. Big winners will be the middle class, business &amp; JOBS</t>
   </si>
   <si>
     <t>Problem is that the acting head of the FBI &amp; the person in charge of the Hillary investigation, Andrew McCabe, got $700,000 from H for wife!</t>
   </si>
   <si>
-    <t>Time to end the myth of "legislation negotiated in secret."  #transparency #HB7069 #PutKidsFirst</t>
-  </si>
-  <si>
-    <t>Working hard on the biggest tax cut in U.S. history. Great support from so many sides. Big winners will be the middle class, business &amp; JOBS</t>
-  </si>
-  <si>
     <t>Just arrived in Italy for the G7. Trip has been very successful. We made and saved the USA many billions of dollars and millions of jobs.</t>
   </si>
   <si>
+    <t>Michelle Obama said she was never proud of her country til they elected her husband POTUS. I've never been prouder since we got rid of him.</t>
+  </si>
+  <si>
     <t>I am supportive of Lamar as a person &amp; also of the process, but I can never support bailing out ins co's who have made a fortune w/ O'Care.</t>
-  </si>
-  <si>
-    <t>Michelle Obama said she was never proud of her country til they elected her husband POTUS. I've never been prouder since we got rid of him.</t>
   </si>
   <si>
     <t>Thank you Jerry Jones: Cowboys Jerry Jones to Players: Stand for the Anthem or you're off team 
@@ -651,13 +764,13 @@
  CEO Evan Spiegel has said the app is for rich people, don't want to expand in poor countries like India and Spain</t>
   </si>
   <si>
+    <t>Fake News CNN is looking at big management changes now that they got caught falsely pushing their phony Russian stories. Ratings way down!</t>
+  </si>
+  <si>
+    <t>The new Rasmussen Poll, one of the most accurate in the 2016 Election, just out with a Trump 50% Approval Rating.That's higher than O's #'s!</t>
+  </si>
+  <si>
     <t>The terrorist came into our country through what is called the "Diversity Visa Lottery Program," a Chuck Schumer beauty. I want merit based.</t>
-  </si>
-  <si>
-    <t>The new Rasmussen Poll, one of the most accurate in the 2016 Election, just out with a Trump 50% Approval Rating.That's higher than O's #'s!</t>
-  </si>
-  <si>
-    <t>Fake News CNN is looking at big management changes now that they got caught falsely pushing their phony Russian stories. Ratings way down!</t>
   </si>
   <si>
     <t>I've been on the Armed Services Com for 10 years.No call or meeting w/Russian ambassador. Ever. Ambassadors call members of Foreign Rel Com.</t>
@@ -723,51 +836,44 @@
 I have tremendous feeling for the people involved in this horrific humanitarian crisis in Syria. My first priority will always be to protect and serve our country, but as President I will find ways to help all those who are suffering.”</t>
   </si>
   <si>
+    <t>#ReadtheBill &amp; you’ll see #TrumpCare would allow insurance execs to personally make millions off your health care.</t>
+  </si>
+  <si>
+    <t>Road projects across the state are staying on track or getting done sooner thanks to the good work of the team at the Wisconsin Department of Transportation.</t>
+  </si>
+  <si>
+    <t>Kicking off Philly's first Immigrant Business Week! Immigrants are responsible for 96% of our small biz growth since 2000. #PHLimmigrantbiz</t>
+  </si>
+  <si>
+    <t>There's a reason this judge is constantly overturned. We look forward to this decision being reversed on appeal 3</t>
+  </si>
+  <si>
+    <t>Opioid crisis the worst in ObamaCare expansion states!</t>
+  </si>
+  <si>
+    <t>The super Liberal Democrat in the Georgia Congressioal race tomorrow wants to protect criminals, allow illegal immigration and raise taxes!</t>
+  </si>
+  <si>
+    <t>The world spent $1735 Billion on war in 2012 it would take $135 billion to eradicate global poverty.</t>
+  </si>
+  <si>
+    <t>For too long, Obamacare has caused high premiums and dismal coverage. It's hurting Americans all over! We need to #RepealAndReplace!</t>
+  </si>
+  <si>
+    <t>We have 5% of world population. 80% of opioids.  https://youtube.com/watch?v=Y9WAfOC3JOc&amp;feature=youtu.be. Time to get to the bottom of it.</t>
+  </si>
+  <si>
+    <t>It's time to remove any statue of Margaret Sanger who was a white suprematist, spoke at kkk events &amp; supported by democrats. #prolife</t>
+  </si>
+  <si>
     <t>Docs: Wisconsin Governor Scott Walker took $1 million from a pro-Putin Ukrainian businessman—last election cycle.
 #TrumpLeaks #TrumpRussia</t>
   </si>
   <si>
-    <t>#ReadtheBill &amp; you’ll see #TrumpCare would allow insurance execs to personally make millions off your health care.</t>
-  </si>
-  <si>
-    <t>Road projects across the state are staying on track or getting done sooner thanks to the good work of the team at the Wisconsin Department of Transportation.</t>
-  </si>
-  <si>
-    <t>Kicking off Philly's first Immigrant Business Week! Immigrants are responsible for 96% of our small biz growth since 2000. #PHLimmigrantbiz</t>
+    <t>No president in history has imposed larger personal lifestyle costs on the taxpayer than Donald Trump.</t>
   </si>
   <si>
     <t>Patriots' turnout for President Obama in 2015 vs. Patriots' turnout for President Trump today: http://nyti.ms/2o4Kwj7</t>
-  </si>
-  <si>
-    <t>No president in history has imposed larger personal lifestyle costs on the taxpayer than Donald Trump.</t>
-  </si>
-  <si>
-    <t>Melania Trump staying at Trump Tower instead of the White House:$182,500,000/year
-Budget National Endowment for the Arts:$149,849,000/year</t>
-  </si>
-  <si>
-    <t>There's a reason this judge is constantly overturned. We look forward to this decision being reversed on appeal 3</t>
-  </si>
-  <si>
-    <t>Opioid crisis the worst in ObamaCare expansion states!</t>
-  </si>
-  <si>
-    <t>The super Liberal Democrat in the Georgia Congressioal race tomorrow wants to protect criminals, allow illegal immigration and raise taxes!</t>
-  </si>
-  <si>
-    <t>The world spent $1735 Billion on war in 2012 it would take $135 billion to eradicate global poverty.</t>
-  </si>
-  <si>
-    <t>For too long, Obamacare has caused high premiums and dismal coverage. It's hurting Americans all over! We need to #RepealAndReplace!</t>
-  </si>
-  <si>
-    <t>We have 5% of world population. 80% of opioids.  https://youtube.com/watch?v=Y9WAfOC3JOc&amp;feature=youtu.be. Time to get to the bottom of it.</t>
-  </si>
-  <si>
-    <t>It's time to remove any statue of Margaret Sanger who was a white suprematist, spoke at kkk events &amp; supported by democrats. #prolife</t>
-  </si>
-  <si>
-    <t>Is Fake News Washington Post being used as a lobbyist weapon against Congress to keep Politicians from looking into Amazon no-tax monopoly?</t>
   </si>
   <si>
     <t>My first order as President was to renovate and modernize our nuclear arsenal. It is now far stronger and more powerful than ever before....</t>
@@ -790,6 +896,9 @@
     <t>Tillerson won't divest from #Exxon, won't recuse himself, doesn't display values of American foreign policy--I'm voting no.</t>
   </si>
   <si>
+    <t>Is Fake News Washington Post being used as a lobbyist weapon against Congress to keep Politicians from looking into Amazon no-tax monopoly?</t>
+  </si>
+  <si>
     <t>At least 7 dead and 48 wounded in terror attack and Mayor of London says there is "no reason to be alarmed!"</t>
   </si>
   <si>
@@ -811,6 +920,10 @@
     <t>Bob Corker gave us the Iran Deal, &amp; that's about it. We need HealthCare, we need Tax Cuts/Reform, we need people that can get the job done!</t>
   </si>
   <si>
+    <t>Melania Trump staying at Trump Tower instead of the White House:$182,500,000/year
+Budget National Endowment for the Arts:$149,849,000/year</t>
+  </si>
+  <si>
     <t>http://www.politifact.com/truth-o-meter/statements/2018/may/29/donald-trump/trump-blames-democrat-own-policy-separating-family/</t>
   </si>
   <si>
@@ -850,12 +963,12 @@
     <t>http://www.politifact.com/truth-o-meter/statements/2018/apr/02/donald-trump/donald-trump-base-comparison-us-mexico-border-laws/</t>
   </si>
   <si>
+    <t>http://www.politifact.com/truth-o-meter/statements/2018/mar/15/donald-trump/donald-trumps-misleading-tweet-trade-canada-rest-w/</t>
+  </si>
+  <si>
     <t>http://www.politifact.com/truth-o-meter/statements/2018/jan/05/donald-trump/did-author-michael-wolff-have-access-white-house/</t>
   </si>
   <si>
-    <t>http://www.politifact.com/truth-o-meter/statements/2018/mar/15/donald-trump/donald-trumps-misleading-tweet-trade-canada-rest-w/</t>
-  </si>
-  <si>
     <t>http://www.politifact.com/truth-o-meter/statements/2018/feb/19/donald-trump/donald-trump-falsely-denies-he-denied-russian-medd/</t>
   </si>
   <si>
@@ -871,34 +984,34 @@
     <t>http://www.politifact.com/truth-o-meter/statements/2018/apr/22/donald-trump/trump-wrongly-says-north-korea-has-agreed-denuclea/</t>
   </si>
   <si>
+    <t>http://www.politifact.com/pennsylvania/statements/2018/jun/05/donald-trump/president-trump-said-eagles-players-kneeled-anthem/</t>
+  </si>
+  <si>
+    <t>http://www.politifact.com/wisconsin/statements/2018/jan/31/scott-walker/scott-walkers-overstated-attack-governor-rival-pau/</t>
+  </si>
+  <si>
+    <t>http://www.politifact.com/truth-o-meter/statements/2018/feb/01/donald-trump/trump-state-union-ratings-not-highest-history/</t>
+  </si>
+  <si>
+    <t>http://www.politifact.com/florida/statements/2018/apr/26/our-future-florida/did-gov-rick-scott-sign-bill-could-make-most-beach/</t>
+  </si>
+  <si>
+    <t>http://www.politifact.com/illinois/statements/2018/apr/10/jb-pritzker/facts-bug-new-pritzker-attack-line-quincy-veterans/</t>
+  </si>
+  <si>
+    <t>http://www.politifact.com/truth-o-meter/statements/2018/may/31/ro-khanna/your-amazon-alexa-spying-you/</t>
+  </si>
+  <si>
+    <t>http://www.politifact.com/texas/statements/2018/mar/23/mike-collier/mike-collier-says-pending-robin-hood-funds-wont-fu/</t>
+  </si>
+  <si>
     <t>http://www.politifact.com/truth-o-meter/statements/2018/jan/24/donald-trump/mexico-isnt-deadliest-country-world-trump-said/</t>
   </si>
   <si>
-    <t>http://www.politifact.com/truth-o-meter/statements/2018/may/31/ro-khanna/your-amazon-alexa-spying-you/</t>
-  </si>
-  <si>
-    <t>http://www.politifact.com/wisconsin/statements/2018/jan/31/scott-walker/scott-walkers-overstated-attack-governor-rival-pau/</t>
-  </si>
-  <si>
-    <t>http://www.politifact.com/truth-o-meter/statements/2018/feb/01/donald-trump/trump-state-union-ratings-not-highest-history/</t>
-  </si>
-  <si>
-    <t>http://www.politifact.com/pennsylvania/statements/2018/jun/05/donald-trump/president-trump-said-eagles-players-kneeled-anthem/</t>
-  </si>
-  <si>
-    <t>http://www.politifact.com/florida/statements/2018/apr/26/our-future-florida/did-gov-rick-scott-sign-bill-could-make-most-beach/</t>
-  </si>
-  <si>
-    <t>http://www.politifact.com/illinois/statements/2018/apr/10/jb-pritzker/facts-bug-new-pritzker-attack-line-quincy-veterans/</t>
+    <t>http://www.politifact.com/texas/statements/2018/jan/25/dan-patrick/dan-patrick-airs-unsupported-claim-about-566000-cr/</t>
   </si>
   <si>
     <t>http://www.politifact.com/truth-o-meter/statements/2018/apr/05/ron-wyden/do-republicans-congress-want-take-away-social-secu/</t>
-  </si>
-  <si>
-    <t>http://www.politifact.com/texas/statements/2018/jan/25/dan-patrick/dan-patrick-airs-unsupported-claim-about-566000-cr/</t>
-  </si>
-  <si>
-    <t>http://www.politifact.com/texas/statements/2018/mar/23/mike-collier/mike-collier-says-pending-robin-hood-funds-wont-fu/</t>
   </si>
   <si>
     <t>Put pressure on the Democrats to end the horrible law that separates children from there parents once they cross the Border into the U.S. Catch and Release, Lottery and Chain must also go with it and we MUST continue building the WALL! DEMOCRATS ARE PROTECTING MS-13 THUGS.</t>
@@ -942,10 +1055,10 @@
     <t>Mexico is making a fortune on NAFTA...They have very strong border laws - ours are pathetic. With all of the money they make from the U.S., hopefully they will stop people from coming through their country and into ours, at least until Congress changes our immigration laws!</t>
   </si>
   <si>
+    <t>We do have a Trade Deficit with Canada, as we do with almost all countries (some of them massive). P.M. Justin Trudeau of Canada, a very good guy, doesn’t like saying that Canada has a Surplus vs. the U.S.(negotiating), but they do...they almost all do...and that’s how I know!</t>
+  </si>
+  <si>
     <t>I authorized Zero access to White House (actually turned him down many times) for author of phony book! I never spoke to him for book. Full of lies, misrepresentations and sources that don’t exist. Look at this guy’s past and watch what happens to him and Sloppy Steve!</t>
-  </si>
-  <si>
-    <t>We do have a Trade Deficit with Canada, as we do with almost all countries (some of them massive). P.M. Justin Trudeau of Canada, a very good guy, doesn’t like saying that Canada has a Surplus vs. the U.S.(negotiating), but they do...they almost all do...and that’s how I know!</t>
   </si>
   <si>
     <t>I never said Russia did not meddle in the election, I said “it may be Russia, or China or another country or group, or it may be a 400 pound genius sitting in bed and playing with his computer.” The Russian “hoax” was that the Trump campaign colluded with Russia - it never did!</t>
@@ -966,10 +1079,7 @@
     <t>Sleepy Eyes Chuck Todd of Fake News NBC just stated that we have given up so much in our negotiations with North Korea, and they have given up nothing. Wow, we haven’t given up anything &amp; they have agreed to denuclearization (so great for World), site closure, &amp; no more testing!</t>
   </si>
   <si>
-    <t>We need the Wall for the safety and security of our country. We need the Wall to help stop the massive inflow of drugs from Mexico, now rated the number one most dangerous country in the world. If there is no Wall, there is no Deal!</t>
-  </si>
-  <si>
-    <t>It is outrageous that the Amazon Echo is recording every conversation in a person’s home and transmitting it to the cloud. This is exactly why we need an internet bill of rights! Didn’t we fight a revolution to prevent exactly this kind of surveillance?</t>
+    <t>The Philadelphia Eagles Football Team was invited to the White House. Unfortunately, only a small number of players decided to come, and we canceled the event. Staying in the Locker Room for the playing of our National Anthem is as disrespectful to our country as kneeling. Sorry!</t>
   </si>
   <si>
     <t>The last thing we need is more Madison in our lives. @Paulsoglin is the latest extreme liberal who wants to take our state backward -- just like he did in Madison, where businesses have left and murders have gone up. We want to go forward.</t>
@@ -980,9 +1090,6 @@
  beat every other Network, for the first time ever, with 11.7 million people tuning in. Delivered from the heart!</t>
   </si>
   <si>
-    <t>The Philadelphia Eagles Football Team was invited to the White House. Unfortunately, only a small number of players decided to come, and we canceled the event. Staying in the Locker Room for the playing of our National Anthem is as disrespectful to our country as kneeling. Sorry!</t>
-  </si>
-  <si>
     <t>On #EarthDay, we want to thank 
 @SenBillNelson
  who has always fought for and defended the health of Florida’s coastlines and environment, while @FLGovScott just signed a bill that could make most of Florida’s beaches private.</t>
@@ -991,13 +1098,19 @@
     <t>After fatally mismanaging the Quincy Veterans’ Home, @BruceRauner is letting persistent health issues jeopardize the wellbeing of our nation’s heroes. This is a shameful display of failed leadership.</t>
   </si>
   <si>
+    <t>It is outrageous that the Amazon Echo is recording every conversation in a person’s home and transmitting it to the cloud. This is exactly why we need an internet bill of rights! Didn’t we fight a revolution to prevent exactly this kind of surveillance?</t>
+  </si>
+  <si>
+    <t>The state is set to recapture an additional $500 million in Robin Hood payments from taxpayers and not one penny of it will go to public education in Texas. Instead, the state government is confiscating our property tax dollars to pay its own bills... #txed #txlege</t>
+  </si>
+  <si>
+    <t>We need the Wall for the safety and security of our country. We need the Wall to help stop the massive inflow of drugs from Mexico, now rated the number one most dangerous country in the world. If there is no Wall, there is no Deal!</t>
+  </si>
+  <si>
+    <t>In the past six years, criminal aliens have been charged with more than 566,000 crimes in Texas including kidnapping, homicide, burglary, and much more. There is no excuse for endangering our communities by allowing criminal aliens who have committed a crime to go free.</t>
+  </si>
+  <si>
     <t>🚨 #TrumpTax was only the beginning. After giving massive tax giveaways to wealthy &amp; powerful shareholders, Republicans in Congress are plotting to take away Medicare, Medicaid and Social Security.</t>
-  </si>
-  <si>
-    <t>In the past six years, criminal aliens have been charged with more than 566,000 crimes in Texas including kidnapping, homicide, burglary, and much more. There is no excuse for endangering our communities by allowing criminal aliens who have committed a crime to go free.</t>
-  </si>
-  <si>
-    <t>The state is set to recapture an additional $500 million in Robin Hood payments from taxpayers and not one penny of it will go to public education in Texas. Instead, the state government is confiscating our property tax dollars to pay its own bills... #txed #txlege</t>
   </si>
   <si>
     <t>count</t>
@@ -1781,6 +1894,215 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>0.2352941176470588</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>0.08695652173913043</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>0.0625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>0.05937921727395411</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>0.04585537918871252</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>0.04545454545454546</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="A7" r:id="rId6"/>
+    <hyperlink ref="A8" r:id="rId7"/>
+    <hyperlink ref="A9" r:id="rId8"/>
+    <hyperlink ref="A10" r:id="rId9"/>
+    <hyperlink ref="A11" r:id="rId10"/>
+    <hyperlink ref="A12" r:id="rId11"/>
+    <hyperlink ref="A13" r:id="rId12"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1803,10 +2125,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -1817,10 +2139,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -1831,10 +2153,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -1845,10 +2167,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -1859,10 +2181,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -1873,10 +2195,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
@@ -1887,10 +2209,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
@@ -1901,10 +2223,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
@@ -1915,10 +2237,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
@@ -1929,10 +2251,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
@@ -1943,10 +2265,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
@@ -1957,10 +2279,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
@@ -1971,10 +2293,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="B14" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
@@ -1985,10 +2307,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="B15" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="C15" t="s">
         <v>6</v>
@@ -1999,10 +2321,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="B16" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="C16" t="s">
         <v>6</v>
@@ -2013,10 +2335,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="C17" t="s">
         <v>6</v>
@@ -2027,10 +2349,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="B18" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="C18" t="s">
         <v>6</v>
@@ -2041,10 +2363,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="B19" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="C19" t="s">
         <v>6</v>
@@ -2055,10 +2377,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="B20" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="C20" t="s">
         <v>6</v>
@@ -2069,10 +2391,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="B21" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="C21" t="s">
         <v>6</v>
@@ -2083,10 +2405,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="B22" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="C22" t="s">
         <v>6</v>
@@ -2097,10 +2419,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="B23" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="C23" t="s">
         <v>6</v>
@@ -2111,10 +2433,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="B24" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="C24" t="s">
         <v>6</v>
@@ -2125,10 +2447,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="B25" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="C25" t="s">
         <v>6</v>
@@ -2139,10 +2461,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="B26" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="C26" t="s">
         <v>6</v>
@@ -2153,10 +2475,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="B27" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="C27" t="s">
         <v>6</v>
@@ -2167,10 +2489,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="B28" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
@@ -2181,10 +2503,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="B29" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="C29" t="s">
         <v>6</v>
@@ -2195,10 +2517,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="B30" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="C30" t="s">
         <v>6</v>
@@ -2209,10 +2531,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="B31" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="C31" t="s">
         <v>6</v>
@@ -2258,7 +2580,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D66"/>
   <sheetViews>
@@ -2282,10 +2604,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -2296,10 +2618,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="B3" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -2310,10 +2632,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="B4" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -2324,10 +2646,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="B5" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -2338,10 +2660,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="B6" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -2352,10 +2674,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="B7" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
@@ -2366,10 +2688,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="B8" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
@@ -2380,10 +2702,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="B9" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
@@ -2394,10 +2716,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="B10" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
@@ -2408,10 +2730,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="B11" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
@@ -2422,10 +2744,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="B12" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
@@ -2436,10 +2758,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="B13" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
@@ -2450,10 +2772,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
@@ -2464,10 +2786,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="B15" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="C15" t="s">
         <v>6</v>
@@ -2478,10 +2800,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="B16" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="C16" t="s">
         <v>6</v>
@@ -2492,10 +2814,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="B17" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="C17" t="s">
         <v>6</v>
@@ -2506,10 +2828,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="B18" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="C18" t="s">
         <v>6</v>
@@ -2520,10 +2842,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="B19" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="C19" t="s">
         <v>6</v>
@@ -2534,10 +2856,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="B20" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="C20" t="s">
         <v>6</v>
@@ -2548,10 +2870,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="B21" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="C21" t="s">
         <v>6</v>
@@ -2562,10 +2884,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="B22" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="C22" t="s">
         <v>6</v>
@@ -2576,10 +2898,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="B23" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="C23" t="s">
         <v>6</v>
@@ -2590,10 +2912,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="B24" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="C24" t="s">
         <v>6</v>
@@ -2604,10 +2926,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="B25" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="C25" t="s">
         <v>6</v>
@@ -2618,10 +2940,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="B26" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="C26" t="s">
         <v>6</v>
@@ -2632,10 +2954,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="B27" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="C27" t="s">
         <v>6</v>
@@ -2646,10 +2968,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="B28" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
@@ -2660,10 +2982,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="B29" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="C29" t="s">
         <v>6</v>
@@ -2674,10 +2996,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="B30" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="C30" t="s">
         <v>6</v>
@@ -2688,10 +3010,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="B31" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="C31" t="s">
         <v>6</v>
@@ -2702,10 +3024,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="B32" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="C32" t="s">
         <v>6</v>
@@ -2716,10 +3038,10 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="B33" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="C33" t="s">
         <v>6</v>
@@ -2730,10 +3052,10 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="B34" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="C34" t="s">
         <v>6</v>
@@ -2744,10 +3066,10 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="B35" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="C35" t="s">
         <v>6</v>
@@ -2758,10 +3080,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="B36" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="C36" t="s">
         <v>6</v>
@@ -2772,10 +3094,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="B37" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="C37" t="s">
         <v>6</v>
@@ -2786,10 +3108,10 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="B38" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="C38" t="s">
         <v>6</v>
@@ -2800,10 +3122,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="B39" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="C39" t="s">
         <v>6</v>
@@ -2814,10 +3136,10 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="B40" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="C40" t="s">
         <v>6</v>
@@ -2828,10 +3150,10 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="B41" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="C41" t="s">
         <v>6</v>
@@ -2842,10 +3164,10 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="B42" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="C42" t="s">
         <v>6</v>
@@ -2856,10 +3178,10 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="B43" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="C43" t="s">
         <v>6</v>
@@ -2870,10 +3192,10 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="B44" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="C44" t="s">
         <v>6</v>
@@ -2884,10 +3206,10 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="B45" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="C45" t="s">
         <v>6</v>
@@ -2898,10 +3220,10 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="B46" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="C46" t="s">
         <v>6</v>
@@ -2912,10 +3234,10 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="B47" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="C47" t="s">
         <v>6</v>
@@ -2926,10 +3248,10 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="B48" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="C48" t="s">
         <v>6</v>
@@ -2940,10 +3262,10 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="B49" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="C49" t="s">
         <v>6</v>
@@ -2954,10 +3276,10 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="B50" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="C50" t="s">
         <v>6</v>
@@ -2968,10 +3290,10 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="B51" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="C51" t="s">
         <v>6</v>
@@ -2982,10 +3304,10 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="B52" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="C52" t="s">
         <v>6</v>
@@ -2996,10 +3318,10 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B53" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="C53" t="s">
         <v>6</v>
@@ -3010,10 +3332,10 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="B54" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="C54" t="s">
         <v>6</v>
@@ -3024,10 +3346,10 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="B55" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="C55" t="s">
         <v>6</v>
@@ -3038,10 +3360,10 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="B56" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="C56" t="s">
         <v>6</v>
@@ -3052,10 +3374,10 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="B57" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="C57" t="s">
         <v>6</v>
@@ -3066,10 +3388,10 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="B58" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="C58" t="s">
         <v>6</v>
@@ -3080,10 +3402,10 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="B59" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="C59" t="s">
         <v>6</v>
@@ -3094,10 +3416,10 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="B60" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="C60" t="s">
         <v>6</v>
@@ -3108,10 +3430,10 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="B61" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="C61" t="s">
         <v>6</v>
@@ -3122,10 +3444,10 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2" t="s">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="B62" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="C62" t="s">
         <v>6</v>
@@ -3136,10 +3458,10 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2" t="s">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="B63" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="C63" t="s">
         <v>6</v>
@@ -3150,10 +3472,10 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="B64" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="C64" t="s">
         <v>6</v>
@@ -3164,10 +3486,10 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="B65" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="C65" t="s">
         <v>6</v>
@@ -3178,10 +3500,10 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="B66" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="C66" t="s">
         <v>6</v>
@@ -3262,7 +3584,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D31"/>
   <sheetViews>
@@ -3286,10 +3608,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="B2" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -3300,10 +3622,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="B3" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -3314,10 +3636,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="B4" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -3328,10 +3650,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="B5" t="s">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -3342,10 +3664,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="B6" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -3356,10 +3678,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="B7" t="s">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
@@ -3370,10 +3692,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="B8" t="s">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
@@ -3384,10 +3706,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="B9" t="s">
-        <v>267</v>
+        <v>291</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
@@ -3398,10 +3720,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="B10" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
@@ -3412,10 +3734,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="B11" t="s">
-        <v>269</v>
+        <v>293</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
@@ -3426,10 +3748,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="B12" t="s">
-        <v>270</v>
+        <v>294</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
@@ -3440,10 +3762,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="B13" t="s">
-        <v>271</v>
+        <v>295</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
@@ -3454,10 +3776,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="B14" t="s">
-        <v>272</v>
+        <v>296</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
@@ -3468,10 +3790,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="B15" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="C15" t="s">
         <v>6</v>
@@ -3482,10 +3804,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="B16" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="C16" t="s">
         <v>6</v>
@@ -3496,10 +3818,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="B17" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="C17" t="s">
         <v>6</v>
@@ -3510,10 +3832,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="B18" t="s">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="C18" t="s">
         <v>6</v>
@@ -3524,10 +3846,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="B19" t="s">
-        <v>277</v>
+        <v>301</v>
       </c>
       <c r="C19" t="s">
         <v>6</v>
@@ -3538,10 +3860,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="B20" t="s">
-        <v>278</v>
+        <v>302</v>
       </c>
       <c r="C20" t="s">
         <v>6</v>
@@ -3552,10 +3874,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="B21" t="s">
-        <v>279</v>
+        <v>303</v>
       </c>
       <c r="C21" t="s">
         <v>6</v>
@@ -3566,10 +3888,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="B22" t="s">
-        <v>280</v>
+        <v>304</v>
       </c>
       <c r="C22" t="s">
         <v>6</v>
@@ -3580,10 +3902,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="B23" t="s">
-        <v>281</v>
+        <v>305</v>
       </c>
       <c r="C23" t="s">
         <v>6</v>
@@ -3594,10 +3916,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="B24" t="s">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="C24" t="s">
         <v>6</v>
@@ -3608,10 +3930,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="B25" t="s">
-        <v>283</v>
+        <v>307</v>
       </c>
       <c r="C25" t="s">
         <v>6</v>
@@ -3622,10 +3944,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="B26" t="s">
-        <v>284</v>
+        <v>308</v>
       </c>
       <c r="C26" t="s">
         <v>6</v>
@@ -3636,10 +3958,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>256</v>
+        <v>280</v>
       </c>
       <c r="B27" t="s">
-        <v>285</v>
+        <v>309</v>
       </c>
       <c r="C27" t="s">
         <v>6</v>
@@ -3650,10 +3972,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="B28" t="s">
-        <v>286</v>
+        <v>310</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
@@ -3664,10 +3986,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="B29" t="s">
-        <v>287</v>
+        <v>311</v>
       </c>
       <c r="C29" t="s">
         <v>6</v>
@@ -3678,10 +4000,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2" t="s">
-        <v>259</v>
+        <v>283</v>
       </c>
       <c r="B30" t="s">
-        <v>288</v>
+        <v>312</v>
       </c>
       <c r="C30" t="s">
         <v>6</v>
@@ -3692,10 +4014,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="B31" t="s">
-        <v>289</v>
+        <v>313</v>
       </c>
       <c r="C31" t="s">
         <v>6</v>
@@ -3741,9 +4063,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3751,31 +4073,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>298</v>
+        <v>322</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>290</v>
+        <v>314</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>291</v>
+        <v>315</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>292</v>
+        <v>316</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>294</v>
+        <v>318</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>295</v>
+        <v>319</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>296</v>
+        <v>320</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>297</v>
+        <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3890,16 +4212,16 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B6">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C6">
-        <v>0.1426321834604203</v>
+        <v>0.04878664844195011</v>
       </c>
       <c r="D6">
-        <v>0.2973001998509077</v>
+        <v>0.06637639683514425</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -3908,27 +4230,27 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.04083333333333333</v>
+        <v>0.04565496232162899</v>
       </c>
       <c r="H6">
-        <v>0.08333333333333333</v>
+        <v>0.06015941295546558</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.2352941176470588</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B7">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="C7">
-        <v>0.06135852352596527</v>
+        <v>0.1426321834604203</v>
       </c>
       <c r="D7">
-        <v>0.1312619149930828</v>
+        <v>0.2973001998509077</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3937,7 +4259,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.02325581395348837</v>
+        <v>0.04083333333333333</v>
       </c>
       <c r="H7">
         <v>0.08333333333333333</v>
@@ -3948,30 +4270,59 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B8">
+        <v>65</v>
+      </c>
+      <c r="C8">
+        <v>0.06135852352596527</v>
+      </c>
+      <c r="D8">
+        <v>0.1312619149930828</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0.02325581395348837</v>
+      </c>
+      <c r="H8">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
         <v>2018</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>30</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>0.0402675642584991</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>0.04112927139444211</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
         <v>0.04006410256410256</v>
       </c>
-      <c r="H8">
+      <c r="H9">
         <v>0.05948200175592625</v>
       </c>
-      <c r="I8">
+      <c r="I9">
         <v>0.1777777777777778</v>
       </c>
     </row>
